--- a/generated_docs/WR_89774664_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89774664_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/27/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89774664_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89774664_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I119"/>
+  <dimension ref="A2:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15550.86</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,28 +867,28 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -897,11 +897,11 @@
         </is>
       </c>
       <c r="F20" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +946,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +980,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -1003,28 +1003,28 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,32 +1033,32 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>435.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1101,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X-C</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr,Corr</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>EQL-1-4-C-20-S-X-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>391.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>GYF-38-42W-I-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>GYF,3/8,42In Wire Mt,InsulatorAdder,Corr</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,11 +1441,11 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1490,51 +1490,51 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>XFR-50-72-120-1B</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>XFR,50KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1543,32 +1543,32 @@
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>57.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1577,32 +1577,32 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1615,28 +1615,28 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,32 +1645,32 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X-C</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr,Corr</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,32 +1679,32 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1717,28 +1717,28 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1751,28 +1751,28 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1781,32 +1781,32 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,32 +1815,32 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>XFR-50-72-120-1B</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>XFR,50KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1853,87 +1853,198 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H49" s="16" t="n">
-        <v>4769.899999999999</v>
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-T1-C</t>
+        </is>
+      </c>
+      <c r="C49" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D49" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+        </is>
+      </c>
+      <c r="E49" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" s="13" t="inlineStr"/>
+      <c r="H49" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E50" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10" t="inlineStr"/>
+      <c r="H50" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C51" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D51" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E51" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="13" t="inlineStr"/>
+      <c r="H51" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="inlineStr">
-        <is>
-          <t>Friday (07/25/2025)</t>
-        </is>
+      <c r="A52" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>CND-S620A</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+        </is>
+      </c>
+      <c r="E52" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10" t="inlineStr"/>
+      <c r="H52" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B53" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C53" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D53" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E53" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F53" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G53" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H53" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A53" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B53" s="12" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C53" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D53" s="12" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E53" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F53" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="13" t="inlineStr"/>
+      <c r="H53" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>EQL-1-4-C-20-S-X-C</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -1942,32 +2053,32 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>435.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -1980,28 +2091,28 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2014,28 +2125,28 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>GYF-38-42W-I-C</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>GYF,3/8,42In Wire Mt,InsulatorAdder,Corr</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2048,28 +2159,28 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>20.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2078,32 +2189,32 @@
         </is>
       </c>
       <c r="F58" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>158.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2116,281 +2227,281 @@
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="15" t="inlineStr">
+      <c r="A60" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C60" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E60" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="G60" s="10" t="inlineStr"/>
+      <c r="H60" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B61" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C61" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D61" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E61" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F61" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="13" t="inlineStr"/>
+      <c r="H61" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C62" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E62" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" s="10" t="inlineStr"/>
+      <c r="H62" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B63" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C63" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D63" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E63" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F63" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="13" t="inlineStr"/>
+      <c r="H63" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B64" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20-C</t>
+        </is>
+      </c>
+      <c r="C64" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+        </is>
+      </c>
+      <c r="E64" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="10" t="inlineStr"/>
+      <c r="H64" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B65" s="12" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C65" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D65" s="12" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E65" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="13" t="inlineStr"/>
+      <c r="H65" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H60" s="16" t="n">
-        <v>1187.76</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="7" t="inlineStr">
-        <is>
-          <t>Saturday (07/26/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="inlineStr">
+      <c r="H66" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="inlineStr">
+        <is>
+          <t>Friday (07/25/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B70" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C64" s="8" t="inlineStr">
+      <c r="C70" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D64" s="8" t="inlineStr">
+      <c r="D70" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E64" s="8" t="inlineStr">
+      <c r="E70" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F64" s="8" t="inlineStr">
+      <c r="F70" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G64" s="8" t="inlineStr">
+      <c r="G70" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H64" s="8" t="inlineStr">
+      <c r="H70" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B65" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C65" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D65" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E65" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F65" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G65" s="10" t="inlineStr"/>
-      <c r="H65" s="11" t="n">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B66" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C66" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D66" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E66" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F66" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="13" t="inlineStr"/>
-      <c r="H66" s="14" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B67" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C67" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D67" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E67" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F67" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="10" t="inlineStr"/>
-      <c r="H67" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B68" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DE-20-C</t>
-        </is>
-      </c>
-      <c r="C68" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D68" s="12" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
-        </is>
-      </c>
-      <c r="E68" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F68" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="13" t="inlineStr"/>
-      <c r="H68" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="9" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B69" s="9" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F-C</t>
-        </is>
-      </c>
-      <c r="C69" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D69" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E69" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F69" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="10" t="inlineStr"/>
-      <c r="H69" s="11" t="n">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B70" s="12" t="inlineStr">
-        <is>
-          <t>BKT-PI24-F-C</t>
-        </is>
-      </c>
-      <c r="C70" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D70" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E70" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F70" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G70" s="13" t="inlineStr"/>
-      <c r="H70" s="14" t="n">
-        <v>63.44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
@@ -2400,7 +2511,7 @@
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2409,22 +2520,22 @@
         </is>
       </c>
       <c r="F71" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
@@ -2434,7 +2545,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E72" s="12" t="inlineStr">
@@ -2447,18 +2558,18 @@
       </c>
       <c r="G72" s="13" t="inlineStr"/>
       <c r="H72" s="14" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
@@ -2468,7 +2579,7 @@
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
@@ -2477,22 +2588,22 @@
         </is>
       </c>
       <c r="F73" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" s="10" t="inlineStr"/>
       <c r="H73" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B74" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C74" s="12" t="inlineStr">
@@ -2502,7 +2613,7 @@
       </c>
       <c r="D74" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E74" s="12" t="inlineStr">
@@ -2511,22 +2622,22 @@
         </is>
       </c>
       <c r="F74" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74" s="13" t="inlineStr"/>
       <c r="H74" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
@@ -2536,7 +2647,7 @@
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E75" s="9" t="inlineStr">
@@ -2549,18 +2660,18 @@
       </c>
       <c r="G75" s="10" t="inlineStr"/>
       <c r="H75" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B76" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>EQL-1-4-C-4-C-LC1</t>
         </is>
       </c>
       <c r="C76" s="12" t="inlineStr">
@@ -2570,7 +2681,7 @@
       </c>
       <c r="D76" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
         </is>
       </c>
       <c r="E76" s="12" t="inlineStr">
@@ -2583,18 +2694,18 @@
       </c>
       <c r="G76" s="13" t="inlineStr"/>
       <c r="H76" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
@@ -2604,7 +2715,7 @@
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
@@ -2613,22 +2724,22 @@
         </is>
       </c>
       <c r="F77" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B78" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
@@ -2638,7 +2749,7 @@
       </c>
       <c r="D78" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E78" s="12" t="inlineStr">
@@ -2647,22 +2758,22 @@
         </is>
       </c>
       <c r="F78" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="13" t="inlineStr"/>
       <c r="H78" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
@@ -2672,31 +2783,31 @@
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F79" s="10" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
@@ -2706,7 +2817,7 @@
       </c>
       <c r="D80" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E80" s="12" t="inlineStr">
@@ -2715,22 +2826,22 @@
         </is>
       </c>
       <c r="F80" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80" s="13" t="inlineStr"/>
       <c r="H80" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
@@ -2740,7 +2851,7 @@
       </c>
       <c r="D81" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E81" s="9" t="inlineStr">
@@ -2753,188 +2864,77 @@
       </c>
       <c r="G81" s="10" t="inlineStr"/>
       <c r="H81" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="12" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B82" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C82" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D82" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E82" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F82" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" s="13" t="inlineStr"/>
-      <c r="H82" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="9" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B83" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C83" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D83" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E83" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F83" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" s="10" t="inlineStr"/>
-      <c r="H83" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="12" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B84" s="12" t="inlineStr">
-        <is>
-          <t>BKT-PI24-F-C</t>
-        </is>
-      </c>
-      <c r="C84" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D84" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E84" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F84" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G84" s="13" t="inlineStr"/>
-      <c r="H84" s="14" t="n">
-        <v>63.44</v>
+      <c r="A82" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H82" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B85" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C85" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D85" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E85" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F85" s="10" t="n">
-        <v>772</v>
-      </c>
-      <c r="G85" s="10" t="inlineStr"/>
-      <c r="H85" s="11" t="n">
-        <v>1806.48</v>
+      <c r="A85" s="7" t="inlineStr">
+        <is>
+          <t>Saturday (07/26/2025)</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="12" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B86" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C86" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D86" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E86" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F86" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G86" s="13" t="inlineStr"/>
-      <c r="H86" s="14" t="n">
-        <v>282.51</v>
+      <c r="A86" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B86" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C86" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D86" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E86" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F86" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G86" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H86" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C87" s="9" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="D87" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E87" s="9" t="inlineStr">
@@ -2957,18 +2957,18 @@
       </c>
       <c r="G87" s="10" t="inlineStr"/>
       <c r="H87" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B88" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C88" s="12" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E88" s="12" t="inlineStr">
@@ -2987,22 +2987,22 @@
         </is>
       </c>
       <c r="F88" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G88" s="13" t="inlineStr"/>
       <c r="H88" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="D89" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E89" s="9" t="inlineStr">
@@ -3025,77 +3025,188 @@
       </c>
       <c r="G89" s="10" t="inlineStr"/>
       <c r="H89" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H90" s="16" t="n">
-        <v>5670.550000000002</v>
+      <c r="A90" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B90" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C90" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D90" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E90" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F90" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="13" t="inlineStr"/>
+      <c r="H90" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B91" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20-C</t>
+        </is>
+      </c>
+      <c r="C91" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D91" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+        </is>
+      </c>
+      <c r="E91" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F91" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="10" t="inlineStr"/>
+      <c r="H91" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B92" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F-C</t>
+        </is>
+      </c>
+      <c r="C92" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D92" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E92" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F92" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="13" t="inlineStr"/>
+      <c r="H92" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="7" t="inlineStr">
-        <is>
-          <t>Sunday (07/27/2025)</t>
-        </is>
+      <c r="A93" s="9" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B93" s="9" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F-C</t>
+        </is>
+      </c>
+      <c r="C93" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D93" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E93" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F93" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" s="10" t="inlineStr"/>
+      <c r="H93" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B94" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C94" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D94" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E94" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F94" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G94" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H94" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A94" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B94" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C94" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D94" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E94" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F94" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="13" t="inlineStr"/>
+      <c r="H94" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B95" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C95" s="9" t="inlineStr">
@@ -3105,7 +3216,7 @@
       </c>
       <c r="D95" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E95" s="9" t="inlineStr">
@@ -3118,18 +3229,18 @@
       </c>
       <c r="G95" s="10" t="inlineStr"/>
       <c r="H95" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B96" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C96" s="12" t="inlineStr">
@@ -3139,7 +3250,7 @@
       </c>
       <c r="D96" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E96" s="12" t="inlineStr">
@@ -3148,22 +3259,22 @@
         </is>
       </c>
       <c r="F96" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" s="13" t="inlineStr"/>
       <c r="H96" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B97" s="9" t="inlineStr">
         <is>
-          <t>CND-S10</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C97" s="9" t="inlineStr">
@@ -3173,7 +3284,7 @@
       </c>
       <c r="D97" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup 1/0</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E97" s="9" t="inlineStr">
@@ -3186,18 +3297,18 @@
       </c>
       <c r="G97" s="10" t="inlineStr"/>
       <c r="H97" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B98" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C98" s="12" t="inlineStr">
@@ -3207,7 +3318,7 @@
       </c>
       <c r="D98" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E98" s="12" t="inlineStr">
@@ -3216,22 +3327,22 @@
         </is>
       </c>
       <c r="F98" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="13" t="inlineStr"/>
       <c r="H98" s="14" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B99" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C99" s="9" t="inlineStr">
@@ -3241,7 +3352,7 @@
       </c>
       <c r="D99" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E99" s="9" t="inlineStr">
@@ -3250,22 +3361,22 @@
         </is>
       </c>
       <c r="F99" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G99" s="10" t="inlineStr"/>
       <c r="H99" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B100" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C100" s="12" t="inlineStr">
@@ -3275,7 +3386,7 @@
       </c>
       <c r="D100" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E100" s="12" t="inlineStr">
@@ -3284,22 +3395,22 @@
         </is>
       </c>
       <c r="F100" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G100" s="13" t="inlineStr"/>
       <c r="H100" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B101" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C101" s="9" t="inlineStr">
@@ -3309,7 +3420,7 @@
       </c>
       <c r="D101" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E101" s="9" t="inlineStr">
@@ -3322,18 +3433,18 @@
       </c>
       <c r="G101" s="10" t="inlineStr"/>
       <c r="H101" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B102" s="12" t="inlineStr">
         <is>
-          <t>POL-40-1</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C102" s="12" t="inlineStr">
@@ -3343,7 +3454,7 @@
       </c>
       <c r="D102" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 1</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E102" s="12" t="inlineStr">
@@ -3356,18 +3467,18 @@
       </c>
       <c r="G102" s="13" t="inlineStr"/>
       <c r="H102" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B103" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C103" s="9" t="inlineStr">
@@ -3377,7 +3488,7 @@
       </c>
       <c r="D103" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E103" s="9" t="inlineStr">
@@ -3390,18 +3501,18 @@
       </c>
       <c r="G103" s="10" t="inlineStr"/>
       <c r="H103" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B104" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C104" s="12" t="inlineStr">
@@ -3411,7 +3522,7 @@
       </c>
       <c r="D104" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E104" s="12" t="inlineStr">
@@ -3420,32 +3531,32 @@
         </is>
       </c>
       <c r="F104" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104" s="13" t="inlineStr"/>
       <c r="H104" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B105" s="9" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C105" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D105" s="9" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E105" s="9" t="inlineStr">
@@ -3454,22 +3565,22 @@
         </is>
       </c>
       <c r="F105" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G105" s="10" t="inlineStr"/>
       <c r="H105" s="11" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B106" s="12" t="inlineStr">
         <is>
-          <t>ARR-10-LS</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C106" s="12" t="inlineStr">
@@ -3479,7 +3590,7 @@
       </c>
       <c r="D106" s="12" t="inlineStr">
         <is>
-          <t>ARR,10kV,Line,Arrester Stations</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E106" s="12" t="inlineStr">
@@ -3488,22 +3599,22 @@
         </is>
       </c>
       <c r="F106" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G106" s="13" t="inlineStr"/>
       <c r="H106" s="14" t="n">
-        <v>200.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B107" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC183PH-F-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C107" s="9" t="inlineStr">
@@ -3513,7 +3624,7 @@
       </c>
       <c r="D107" s="9" t="inlineStr">
         <is>
-          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E107" s="9" t="inlineStr">
@@ -3526,18 +3637,18 @@
       </c>
       <c r="G107" s="10" t="inlineStr"/>
       <c r="H107" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B108" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C108" s="12" t="inlineStr">
@@ -3547,7 +3658,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E108" s="12" t="inlineStr">
@@ -3556,22 +3667,22 @@
         </is>
       </c>
       <c r="F108" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108" s="13" t="inlineStr"/>
       <c r="H108" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B109" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C109" s="9" t="inlineStr">
@@ -3581,7 +3692,7 @@
       </c>
       <c r="D109" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E109" s="9" t="inlineStr">
@@ -3590,22 +3701,22 @@
         </is>
       </c>
       <c r="F109" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" s="10" t="inlineStr"/>
       <c r="H109" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B110" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C110" s="12" t="inlineStr">
@@ -3615,31 +3726,31 @@
       </c>
       <c r="D110" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E110" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F110" s="13" t="n">
-        <v>3</v>
+        <v>772</v>
       </c>
       <c r="G110" s="13" t="inlineStr"/>
       <c r="H110" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B111" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C111" s="9" t="inlineStr">
@@ -3649,7 +3760,7 @@
       </c>
       <c r="D111" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E111" s="9" t="inlineStr">
@@ -3658,22 +3769,22 @@
         </is>
       </c>
       <c r="F111" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G111" s="10" t="inlineStr"/>
       <c r="H111" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B112" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C112" s="12" t="inlineStr">
@@ -3683,7 +3794,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E112" s="12" t="inlineStr">
@@ -3696,18 +3807,18 @@
       </c>
       <c r="G112" s="13" t="inlineStr"/>
       <c r="H112" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B113" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C113" s="9" t="inlineStr">
@@ -3717,7 +3828,7 @@
       </c>
       <c r="D113" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E113" s="9" t="inlineStr">
@@ -3730,18 +3841,18 @@
       </c>
       <c r="G113" s="10" t="inlineStr"/>
       <c r="H113" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B114" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C114" s="12" t="inlineStr">
@@ -3751,7 +3862,7 @@
       </c>
       <c r="D114" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E114" s="12" t="inlineStr">
@@ -3760,178 +3871,1019 @@
         </is>
       </c>
       <c r="F114" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" s="13" t="inlineStr"/>
       <c r="H114" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="9" t="inlineStr">
+      <c r="A115" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H115" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="inlineStr">
+        <is>
+          <t>Sunday (07/27/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B119" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C119" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D119" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E119" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F119" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G119" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H119" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B120" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F-C</t>
+        </is>
+      </c>
+      <c r="C120" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D120" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E120" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F120" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" s="10" t="inlineStr"/>
+      <c r="H120" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B121" s="12" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F-C</t>
+        </is>
+      </c>
+      <c r="C121" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D121" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E121" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F121" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G121" s="13" t="inlineStr"/>
+      <c r="H121" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B122" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC10</t>
+        </is>
+      </c>
+      <c r="C122" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D122" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line Clamp 1/0</t>
+        </is>
+      </c>
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F122" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="10" t="inlineStr"/>
+      <c r="H122" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B123" s="12" t="inlineStr">
+        <is>
+          <t>CND-S10</t>
+        </is>
+      </c>
+      <c r="C123" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D123" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup 1/0</t>
+        </is>
+      </c>
+      <c r="E123" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F123" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" s="13" t="inlineStr"/>
+      <c r="H123" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B124" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X-C</t>
+        </is>
+      </c>
+      <c r="C124" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D124" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+        </is>
+      </c>
+      <c r="E124" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" s="10" t="inlineStr"/>
+      <c r="H124" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B125" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C125" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D125" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E125" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F125" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="13" t="inlineStr"/>
+      <c r="H125" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B126" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C126" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D126" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E126" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" s="10" t="inlineStr"/>
+      <c r="H126" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B127" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C127" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D127" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E127" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G127" s="13" t="inlineStr"/>
+      <c r="H127" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C128" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D128" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E128" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F128" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" s="10" t="inlineStr"/>
+      <c r="H128" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B129" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-1</t>
+        </is>
+      </c>
+      <c r="C129" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D129" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E129" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="13" t="inlineStr"/>
+      <c r="H129" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B130" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C130" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D130" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E130" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F130" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="10" t="inlineStr"/>
+      <c r="H130" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B131" s="12" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C131" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D131" s="12" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E131" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F131" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="13" t="inlineStr"/>
+      <c r="H131" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B132" s="9" t="inlineStr">
+        <is>
+          <t>XFR-25-72-120-1B</t>
+        </is>
+      </c>
+      <c r="C132" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D132" s="9" t="inlineStr">
+        <is>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+        </is>
+      </c>
+      <c r="E132" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="10" t="inlineStr"/>
+      <c r="H132" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B133" s="12" t="inlineStr">
+        <is>
+          <t>ARR-10-LS</t>
+        </is>
+      </c>
+      <c r="C133" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D133" s="12" t="inlineStr">
+        <is>
+          <t>ARR,10kV,Line,Arrester Stations</t>
+        </is>
+      </c>
+      <c r="E133" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G133" s="13" t="inlineStr"/>
+      <c r="H133" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B134" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC183PH-F-C</t>
+        </is>
+      </c>
+      <c r="C134" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D134" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E134" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F134" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="10" t="inlineStr"/>
+      <c r="H134" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B135" s="12" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F-C</t>
+        </is>
+      </c>
+      <c r="C135" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D135" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E135" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F135" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G135" s="13" t="inlineStr"/>
+      <c r="H135" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B136" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C136" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D136" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E136" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="10" t="inlineStr"/>
+      <c r="H136" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B137" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C137" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D137" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E137" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F137" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G137" s="13" t="inlineStr"/>
+      <c r="H137" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B138" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C138" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D138" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E138" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F138" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G138" s="10" t="inlineStr"/>
+      <c r="H138" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B139" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C139" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D139" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E139" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F139" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" s="13" t="inlineStr"/>
+      <c r="H139" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B140" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C140" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D140" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E140" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F140" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" s="10" t="inlineStr"/>
+      <c r="H140" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B141" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C141" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D141" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E141" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F141" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" s="13" t="inlineStr"/>
+      <c r="H141" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B115" s="9" t="inlineStr">
+      <c r="B142" s="9" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F-C</t>
+        </is>
+      </c>
+      <c r="C142" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D142" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E142" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F142" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" s="10" t="inlineStr"/>
+      <c r="H142" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B143" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C115" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D115" s="9" t="inlineStr">
+      <c r="C143" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D143" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E115" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F115" s="10" t="n">
+      <c r="E143" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F143" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G115" s="10" t="inlineStr"/>
-      <c r="H115" s="11" t="n">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="12" t="inlineStr">
+      <c r="G143" s="13" t="inlineStr"/>
+      <c r="H143" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B116" s="12" t="inlineStr">
+      <c r="B144" s="9" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C116" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D116" s="12" t="inlineStr">
+      <c r="C144" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D144" s="9" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E116" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F116" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G116" s="13" t="inlineStr"/>
-      <c r="H116" s="14" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="9" t="inlineStr">
+      <c r="E144" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" s="10" t="inlineStr"/>
+      <c r="H144" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="12" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B117" s="9" t="inlineStr">
+      <c r="B145" s="12" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C117" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D117" s="9" t="inlineStr">
+      <c r="C145" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D145" s="12" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E117" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F117" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G117" s="10" t="inlineStr"/>
-      <c r="H117" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="12" t="inlineStr">
+      <c r="E145" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F145" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" s="13" t="inlineStr"/>
+      <c r="H145" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B118" s="12" t="inlineStr">
+      <c r="B146" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C118" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D118" s="12" t="inlineStr">
+      <c r="C146" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D146" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E118" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F118" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G118" s="13" t="inlineStr"/>
-      <c r="H118" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="15" t="inlineStr">
+      <c r="E146" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F146" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" s="10" t="inlineStr"/>
+      <c r="H146" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H119" s="16" t="n">
-        <v>3922.650000000001</v>
+      <c r="H147" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="A66:G66"/>
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A69:H69"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="A85:H85"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A118:H118"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="A147:G147"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A115:G115"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89774664_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89774664_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I147"/>
+  <dimension ref="A2:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>15550.86</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P37</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="19">
@@ -867,28 +863,28 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -897,11 +893,11 @@
         </is>
       </c>
       <c r="F20" s="10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +908,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +918,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +942,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +952,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +976,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +986,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -1003,28 +999,28 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,32 +1029,32 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>435.06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,11 +1063,11 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1078,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1097,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1112,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1122,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1146,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>EQL-1-4-C-20-S-X-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1156,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1180,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1190,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1214,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,7 +1237,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1248,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,7 +1271,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1282,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,7 +1305,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1316,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1326,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,7 +1339,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="34">
@@ -1354,17 +1350,17 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,7 +1373,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>391.66</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1384,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-42W-I-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,42In Wire Mt,InsulatorAdder,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1411,7 +1407,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1418,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1428,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,11 +1437,11 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="37">
@@ -1456,7 +1452,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1462,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1479,7 +1475,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="38">
@@ -1490,51 +1486,51 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>XFR-50-72-120-1B</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>XFR,50KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1543,32 +1539,32 @@
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1577,32 +1573,32 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1615,28 +1611,28 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,32 +1641,32 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>EQL-1-4-C-20-S-X-C</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,32 +1675,32 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1717,28 +1713,28 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1751,28 +1747,28 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1781,32 +1777,32 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,32 +1811,32 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>XFR-50-72-120-1B</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>XFR,50KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1853,198 +1849,87 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B49" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-T1-C</t>
-        </is>
-      </c>
-      <c r="C49" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D49" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
-        </is>
-      </c>
-      <c r="E49" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" s="13" t="inlineStr"/>
-      <c r="H49" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B50" s="9" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F</t>
-        </is>
-      </c>
-      <c r="C50" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D50" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
-        </is>
-      </c>
-      <c r="E50" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="10" t="inlineStr"/>
-      <c r="H50" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B51" s="12" t="inlineStr">
-        <is>
-          <t>CND-HLC2</t>
-        </is>
-      </c>
-      <c r="C51" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D51" s="12" t="inlineStr">
-        <is>
-          <t>CND,Hot Line clamp #6-#2</t>
-        </is>
-      </c>
-      <c r="E51" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F51" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="13" t="inlineStr"/>
-      <c r="H51" s="14" t="n">
-        <v>0</v>
+      <c r="A49" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H49" s="16" t="n">
+        <v>4769.899999999999</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B52" s="9" t="inlineStr">
-        <is>
-          <t>CND-S620A</t>
-        </is>
-      </c>
-      <c r="C52" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D52" s="9" t="inlineStr">
-        <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
-        </is>
-      </c>
-      <c r="E52" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F52" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="10" t="inlineStr"/>
-      <c r="H52" s="11" t="n">
-        <v>0</v>
+      <c r="A52" s="7" t="inlineStr">
+        <is>
+          <t>Friday (07/25/2025)</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B53" s="12" t="inlineStr">
-        <is>
-          <t>DEC-20AL-C</t>
-        </is>
-      </c>
-      <c r="C53" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D53" s="12" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E53" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F53" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="13" t="inlineStr"/>
-      <c r="H53" s="14" t="n">
-        <v>0</v>
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D53" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H53" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr,Corr</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2053,32 +1938,32 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>435.06</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -2091,28 +1976,28 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2125,28 +2010,28 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-42W-I-C</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,42In Wire Mt,InsulatorAdder,Corr</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2159,28 +2044,28 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>0</v>
+        <v>20.29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2189,32 +2074,32 @@
         </is>
       </c>
       <c r="F58" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>0</v>
+        <v>158.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2227,281 +2112,281 @@
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B60" s="9" t="inlineStr">
-        <is>
-          <t>GYW-38C</t>
-        </is>
-      </c>
-      <c r="C60" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D60" s="9" t="inlineStr">
-        <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
-        </is>
-      </c>
-      <c r="E60" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F60" s="10" t="n">
-        <v>80</v>
-      </c>
-      <c r="G60" s="10" t="inlineStr"/>
-      <c r="H60" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B61" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C61" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D61" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E61" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F61" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="13" t="inlineStr"/>
-      <c r="H61" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B62" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C62" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D62" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E62" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F62" s="10" t="n">
+      <c r="A60" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H60" s="16" t="n">
+        <v>1187.76</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="inlineStr">
+        <is>
+          <t>Saturday (07/26/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B64" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D64" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F64" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H64" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B65" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C65" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E65" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G62" s="10" t="inlineStr"/>
-      <c r="H62" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B63" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C63" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D63" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E63" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F63" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="13" t="inlineStr"/>
-      <c r="H63" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="inlineStr">
+      <c r="G65" s="10" t="inlineStr"/>
+      <c r="H65" s="11" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B66" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C66" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D66" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E66" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F66" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="13" t="inlineStr"/>
+      <c r="H66" s="14" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C67" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E67" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="10" t="inlineStr"/>
+      <c r="H67" s="11" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B68" s="12" t="inlineStr">
         <is>
           <t>SAA-DE-20-C</t>
         </is>
       </c>
-      <c r="C64" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D64" s="9" t="inlineStr">
+      <c r="C68" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D68" s="12" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
-      <c r="E64" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F64" s="10" t="n">
+      <c r="E68" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="13" t="inlineStr"/>
+      <c r="H68" s="14" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F-C</t>
+        </is>
+      </c>
+      <c r="C69" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D69" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E69" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="10" t="inlineStr"/>
+      <c r="H69" s="11" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B70" s="12" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F-C</t>
+        </is>
+      </c>
+      <c r="C70" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D70" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E70" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F70" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G64" s="10" t="inlineStr"/>
-      <c r="H64" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B65" s="12" t="inlineStr">
-        <is>
-          <t>XCO-27-100-8-C</t>
-        </is>
-      </c>
-      <c r="C65" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D65" s="12" t="inlineStr">
-        <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
-        </is>
-      </c>
-      <c r="E65" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F65" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="13" t="inlineStr"/>
-      <c r="H65" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H66" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="7" t="inlineStr">
-        <is>
-          <t>Friday (07/25/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B70" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C70" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D70" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E70" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F70" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G70" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H70" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="G70" s="13" t="inlineStr"/>
+      <c r="H70" s="14" t="n">
+        <v>63.44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
@@ -2511,7 +2396,7 @@
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2520,22 +2405,22 @@
         </is>
       </c>
       <c r="F71" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
@@ -2545,7 +2430,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E72" s="12" t="inlineStr">
@@ -2558,18 +2443,18 @@
       </c>
       <c r="G72" s="13" t="inlineStr"/>
       <c r="H72" s="14" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
@@ -2579,7 +2464,7 @@
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
@@ -2588,22 +2473,22 @@
         </is>
       </c>
       <c r="F73" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="10" t="inlineStr"/>
       <c r="H73" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B74" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C74" s="12" t="inlineStr">
@@ -2613,7 +2498,7 @@
       </c>
       <c r="D74" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E74" s="12" t="inlineStr">
@@ -2622,22 +2507,22 @@
         </is>
       </c>
       <c r="F74" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G74" s="13" t="inlineStr"/>
       <c r="H74" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
@@ -2647,7 +2532,7 @@
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E75" s="9" t="inlineStr">
@@ -2660,18 +2545,18 @@
       </c>
       <c r="G75" s="10" t="inlineStr"/>
       <c r="H75" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B76" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-4-C-LC1</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C76" s="12" t="inlineStr">
@@ -2681,7 +2566,7 @@
       </c>
       <c r="D76" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E76" s="12" t="inlineStr">
@@ -2694,18 +2579,18 @@
       </c>
       <c r="G76" s="13" t="inlineStr"/>
       <c r="H76" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
@@ -2715,7 +2600,7 @@
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
@@ -2724,22 +2609,22 @@
         </is>
       </c>
       <c r="F77" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B78" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
@@ -2749,7 +2634,7 @@
       </c>
       <c r="D78" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E78" s="12" t="inlineStr">
@@ -2758,22 +2643,22 @@
         </is>
       </c>
       <c r="F78" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="13" t="inlineStr"/>
       <c r="H78" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
@@ -2783,31 +2668,31 @@
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F79" s="10" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
@@ -2817,7 +2702,7 @@
       </c>
       <c r="D80" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E80" s="12" t="inlineStr">
@@ -2826,22 +2711,22 @@
         </is>
       </c>
       <c r="F80" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80" s="13" t="inlineStr"/>
       <c r="H80" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
@@ -2851,7 +2736,7 @@
       </c>
       <c r="D81" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E81" s="9" t="inlineStr">
@@ -2864,77 +2749,188 @@
       </c>
       <c r="G81" s="10" t="inlineStr"/>
       <c r="H81" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H82" s="16" t="n">
-        <v>0</v>
+      <c r="A82" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B82" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C82" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D82" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E82" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="13" t="inlineStr"/>
+      <c r="H82" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B83" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C83" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D83" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E83" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F83" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="10" t="inlineStr"/>
+      <c r="H83" s="11" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="12" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B84" s="12" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F-C</t>
+        </is>
+      </c>
+      <c r="C84" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D84" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E84" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F84" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" s="13" t="inlineStr"/>
+      <c r="H84" s="14" t="n">
+        <v>63.44</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="7" t="inlineStr">
-        <is>
-          <t>Saturday (07/26/2025)</t>
-        </is>
+      <c r="A85" s="9" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B85" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C85" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D85" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E85" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F85" s="10" t="n">
+        <v>772</v>
+      </c>
+      <c r="G85" s="10" t="inlineStr"/>
+      <c r="H85" s="11" t="n">
+        <v>1806.48</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B86" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C86" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D86" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E86" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F86" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G86" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H86" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A86" s="12" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B86" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C86" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D86" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E86" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F86" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G86" s="13" t="inlineStr"/>
+      <c r="H86" s="14" t="n">
+        <v>282.51</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C87" s="9" t="inlineStr">
@@ -2944,7 +2940,7 @@
       </c>
       <c r="D87" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E87" s="9" t="inlineStr">
@@ -2957,18 +2953,18 @@
       </c>
       <c r="G87" s="10" t="inlineStr"/>
       <c r="H87" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B88" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C88" s="12" t="inlineStr">
@@ -2978,7 +2974,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E88" s="12" t="inlineStr">
@@ -2987,22 +2983,22 @@
         </is>
       </c>
       <c r="F88" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" s="13" t="inlineStr"/>
       <c r="H88" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
@@ -3012,7 +3008,7 @@
       </c>
       <c r="D89" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E89" s="9" t="inlineStr">
@@ -3025,188 +3021,77 @@
       </c>
       <c r="G89" s="10" t="inlineStr"/>
       <c r="H89" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B90" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C90" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D90" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E90" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F90" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="13" t="inlineStr"/>
-      <c r="H90" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B91" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DE-20-C</t>
-        </is>
-      </c>
-      <c r="C91" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D91" s="9" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
-        </is>
-      </c>
-      <c r="E91" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F91" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="10" t="inlineStr"/>
-      <c r="H91" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B92" s="12" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F-C</t>
-        </is>
-      </c>
-      <c r="C92" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D92" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E92" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F92" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" s="13" t="inlineStr"/>
-      <c r="H92" s="14" t="n">
-        <v>0</v>
+      <c r="A90" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H90" s="16" t="n">
+        <v>5670.550000000002</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="9" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B93" s="9" t="inlineStr">
-        <is>
-          <t>BKT-PI24-F-C</t>
-        </is>
-      </c>
-      <c r="C93" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D93" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E93" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F93" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G93" s="10" t="inlineStr"/>
-      <c r="H93" s="11" t="n">
-        <v>0</v>
+      <c r="A93" s="7" t="inlineStr">
+        <is>
+          <t>Sunday (07/27/2025)</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B94" s="12" t="inlineStr">
-        <is>
-          <t>CND-HLC2</t>
-        </is>
-      </c>
-      <c r="C94" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D94" s="12" t="inlineStr">
-        <is>
-          <t>CND,Hot Line clamp #6-#2</t>
-        </is>
-      </c>
-      <c r="E94" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F94" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" s="13" t="inlineStr"/>
-      <c r="H94" s="14" t="n">
-        <v>0</v>
+      <c r="A94" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B94" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C94" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D94" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E94" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F94" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G94" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H94" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B95" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C95" s="9" t="inlineStr">
@@ -3216,7 +3101,7 @@
       </c>
       <c r="D95" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E95" s="9" t="inlineStr">
@@ -3229,18 +3114,18 @@
       </c>
       <c r="G95" s="10" t="inlineStr"/>
       <c r="H95" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B96" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C96" s="12" t="inlineStr">
@@ -3250,7 +3135,7 @@
       </c>
       <c r="D96" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E96" s="12" t="inlineStr">
@@ -3259,22 +3144,22 @@
         </is>
       </c>
       <c r="F96" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96" s="13" t="inlineStr"/>
       <c r="H96" s="14" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B97" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CND-S10</t>
         </is>
       </c>
       <c r="C97" s="9" t="inlineStr">
@@ -3284,7 +3169,7 @@
       </c>
       <c r="D97" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CND,Stirrup 1/0</t>
         </is>
       </c>
       <c r="E97" s="9" t="inlineStr">
@@ -3297,18 +3182,18 @@
       </c>
       <c r="G97" s="10" t="inlineStr"/>
       <c r="H97" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B98" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C98" s="12" t="inlineStr">
@@ -3318,7 +3203,7 @@
       </c>
       <c r="D98" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E98" s="12" t="inlineStr">
@@ -3327,22 +3212,22 @@
         </is>
       </c>
       <c r="F98" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" s="13" t="inlineStr"/>
       <c r="H98" s="14" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B99" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C99" s="9" t="inlineStr">
@@ -3352,7 +3237,7 @@
       </c>
       <c r="D99" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E99" s="9" t="inlineStr">
@@ -3361,22 +3246,22 @@
         </is>
       </c>
       <c r="F99" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G99" s="10" t="inlineStr"/>
       <c r="H99" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B100" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C100" s="12" t="inlineStr">
@@ -3386,7 +3271,7 @@
       </c>
       <c r="D100" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E100" s="12" t="inlineStr">
@@ -3395,22 +3280,22 @@
         </is>
       </c>
       <c r="F100" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G100" s="13" t="inlineStr"/>
       <c r="H100" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B101" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C101" s="9" t="inlineStr">
@@ -3420,7 +3305,7 @@
       </c>
       <c r="D101" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E101" s="9" t="inlineStr">
@@ -3433,18 +3318,18 @@
       </c>
       <c r="G101" s="10" t="inlineStr"/>
       <c r="H101" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B102" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-1</t>
         </is>
       </c>
       <c r="C102" s="12" t="inlineStr">
@@ -3454,7 +3339,7 @@
       </c>
       <c r="D102" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 1</t>
         </is>
       </c>
       <c r="E102" s="12" t="inlineStr">
@@ -3467,18 +3352,18 @@
       </c>
       <c r="G102" s="13" t="inlineStr"/>
       <c r="H102" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B103" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C103" s="9" t="inlineStr">
@@ -3488,7 +3373,7 @@
       </c>
       <c r="D103" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E103" s="9" t="inlineStr">
@@ -3501,18 +3386,18 @@
       </c>
       <c r="G103" s="10" t="inlineStr"/>
       <c r="H103" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B104" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C104" s="12" t="inlineStr">
@@ -3522,7 +3407,7 @@
       </c>
       <c r="D104" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E104" s="12" t="inlineStr">
@@ -3531,32 +3416,32 @@
         </is>
       </c>
       <c r="F104" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104" s="13" t="inlineStr"/>
       <c r="H104" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B105" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C105" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D105" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E105" s="9" t="inlineStr">
@@ -3565,22 +3450,22 @@
         </is>
       </c>
       <c r="F105" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G105" s="10" t="inlineStr"/>
       <c r="H105" s="11" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B106" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>ARR-10-LS</t>
         </is>
       </c>
       <c r="C106" s="12" t="inlineStr">
@@ -3590,7 +3475,7 @@
       </c>
       <c r="D106" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>ARR,10kV,Line,Arrester Stations</t>
         </is>
       </c>
       <c r="E106" s="12" t="inlineStr">
@@ -3599,22 +3484,22 @@
         </is>
       </c>
       <c r="F106" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106" s="13" t="inlineStr"/>
       <c r="H106" s="14" t="n">
-        <v>0</v>
+        <v>200.16</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B107" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>BKT-AC183PH-F-C</t>
         </is>
       </c>
       <c r="C107" s="9" t="inlineStr">
@@ -3624,7 +3509,7 @@
       </c>
       <c r="D107" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E107" s="9" t="inlineStr">
@@ -3637,18 +3522,18 @@
       </c>
       <c r="G107" s="10" t="inlineStr"/>
       <c r="H107" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B108" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C108" s="12" t="inlineStr">
@@ -3658,7 +3543,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E108" s="12" t="inlineStr">
@@ -3667,22 +3552,22 @@
         </is>
       </c>
       <c r="F108" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" s="13" t="inlineStr"/>
       <c r="H108" s="14" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B109" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C109" s="9" t="inlineStr">
@@ -3692,7 +3577,7 @@
       </c>
       <c r="D109" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E109" s="9" t="inlineStr">
@@ -3701,22 +3586,22 @@
         </is>
       </c>
       <c r="F109" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109" s="10" t="inlineStr"/>
       <c r="H109" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B110" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C110" s="12" t="inlineStr">
@@ -3726,31 +3611,31 @@
       </c>
       <c r="D110" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E110" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F110" s="13" t="n">
-        <v>772</v>
+        <v>3</v>
       </c>
       <c r="G110" s="13" t="inlineStr"/>
       <c r="H110" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B111" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C111" s="9" t="inlineStr">
@@ -3760,7 +3645,7 @@
       </c>
       <c r="D111" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E111" s="9" t="inlineStr">
@@ -3769,22 +3654,22 @@
         </is>
       </c>
       <c r="F111" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G111" s="10" t="inlineStr"/>
       <c r="H111" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B112" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C112" s="12" t="inlineStr">
@@ -3794,7 +3679,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E112" s="12" t="inlineStr">
@@ -3807,18 +3692,18 @@
       </c>
       <c r="G112" s="13" t="inlineStr"/>
       <c r="H112" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B113" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C113" s="9" t="inlineStr">
@@ -3828,7 +3713,7 @@
       </c>
       <c r="D113" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E113" s="9" t="inlineStr">
@@ -3841,18 +3726,18 @@
       </c>
       <c r="G113" s="10" t="inlineStr"/>
       <c r="H113" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B114" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C114" s="12" t="inlineStr">
@@ -3862,7 +3747,7 @@
       </c>
       <c r="D114" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E114" s="12" t="inlineStr">
@@ -3871,1019 +3756,178 @@
         </is>
       </c>
       <c r="F114" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114" s="13" t="inlineStr"/>
       <c r="H114" s="14" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="15" t="inlineStr">
+      <c r="A115" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B115" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C115" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D115" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E115" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G115" s="10" t="inlineStr"/>
+      <c r="H115" s="11" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B116" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C116" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D116" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E116" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" s="13" t="inlineStr"/>
+      <c r="H116" s="14" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B117" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C117" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D117" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E117" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="10" t="inlineStr"/>
+      <c r="H117" s="11" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B118" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C118" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D118" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E118" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F118" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" s="13" t="inlineStr"/>
+      <c r="H118" s="14" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H115" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="7" t="inlineStr">
-        <is>
-          <t>Sunday (07/27/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B119" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C119" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D119" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E119" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F119" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G119" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H119" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B120" s="9" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F-C</t>
-        </is>
-      </c>
-      <c r="C120" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D120" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E120" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F120" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G120" s="10" t="inlineStr"/>
-      <c r="H120" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B121" s="12" t="inlineStr">
-        <is>
-          <t>BKT-PI24-F-C</t>
-        </is>
-      </c>
-      <c r="C121" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D121" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E121" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F121" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G121" s="13" t="inlineStr"/>
-      <c r="H121" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B122" s="9" t="inlineStr">
-        <is>
-          <t>CND-HLC10</t>
-        </is>
-      </c>
-      <c r="C122" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D122" s="9" t="inlineStr">
-        <is>
-          <t>CND,Hot Line Clamp 1/0</t>
-        </is>
-      </c>
-      <c r="E122" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F122" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" s="10" t="inlineStr"/>
-      <c r="H122" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B123" s="12" t="inlineStr">
-        <is>
-          <t>CND-S10</t>
-        </is>
-      </c>
-      <c r="C123" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D123" s="12" t="inlineStr">
-        <is>
-          <t>CND,Stirrup 1/0</t>
-        </is>
-      </c>
-      <c r="E123" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F123" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G123" s="13" t="inlineStr"/>
-      <c r="H123" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B124" s="9" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
-        </is>
-      </c>
-      <c r="C124" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D124" s="9" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
-        </is>
-      </c>
-      <c r="E124" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F124" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G124" s="10" t="inlineStr"/>
-      <c r="H124" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B125" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C125" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D125" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E125" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F125" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" s="13" t="inlineStr"/>
-      <c r="H125" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B126" s="9" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C126" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D126" s="9" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E126" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F126" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G126" s="10" t="inlineStr"/>
-      <c r="H126" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B127" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C127" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D127" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E127" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F127" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G127" s="13" t="inlineStr"/>
-      <c r="H127" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B128" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C128" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D128" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E128" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F128" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G128" s="10" t="inlineStr"/>
-      <c r="H128" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B129" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-1</t>
-        </is>
-      </c>
-      <c r="C129" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D129" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 1</t>
-        </is>
-      </c>
-      <c r="E129" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F129" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G129" s="13" t="inlineStr"/>
-      <c r="H129" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B130" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C130" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D130" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E130" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F130" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" s="10" t="inlineStr"/>
-      <c r="H130" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B131" s="12" t="inlineStr">
-        <is>
-          <t>XCO-27-100-8-C</t>
-        </is>
-      </c>
-      <c r="C131" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D131" s="12" t="inlineStr">
-        <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
-        </is>
-      </c>
-      <c r="E131" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F131" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" s="13" t="inlineStr"/>
-      <c r="H131" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B132" s="9" t="inlineStr">
-        <is>
-          <t>XFR-25-72-120-1B</t>
-        </is>
-      </c>
-      <c r="C132" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D132" s="9" t="inlineStr">
-        <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
-        </is>
-      </c>
-      <c r="E132" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F132" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G132" s="10" t="inlineStr"/>
-      <c r="H132" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="12" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B133" s="12" t="inlineStr">
-        <is>
-          <t>ARR-10-LS</t>
-        </is>
-      </c>
-      <c r="C133" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D133" s="12" t="inlineStr">
-        <is>
-          <t>ARR,10kV,Line,Arrester Stations</t>
-        </is>
-      </c>
-      <c r="E133" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F133" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G133" s="13" t="inlineStr"/>
-      <c r="H133" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="9" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B134" s="9" t="inlineStr">
-        <is>
-          <t>BKT-AC183PH-F-C</t>
-        </is>
-      </c>
-      <c r="C134" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D134" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Riser Arr/Term 18in 3Ph,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E134" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F134" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G134" s="10" t="inlineStr"/>
-      <c r="H134" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="12" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B135" s="12" t="inlineStr">
-        <is>
-          <t>BKT-PI24-F-C</t>
-        </is>
-      </c>
-      <c r="C135" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D135" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E135" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F135" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G135" s="13" t="inlineStr"/>
-      <c r="H135" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="9" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B136" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C136" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D136" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E136" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F136" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" s="10" t="inlineStr"/>
-      <c r="H136" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="12" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B137" s="12" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C137" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D137" s="12" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E137" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F137" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G137" s="13" t="inlineStr"/>
-      <c r="H137" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="9" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B138" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C138" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D138" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E138" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F138" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G138" s="10" t="inlineStr"/>
-      <c r="H138" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="12" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B139" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C139" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D139" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E139" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F139" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" s="13" t="inlineStr"/>
-      <c r="H139" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="9" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B140" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C140" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D140" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E140" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F140" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G140" s="10" t="inlineStr"/>
-      <c r="H140" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="12" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B141" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C141" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D141" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E141" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F141" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" s="13" t="inlineStr"/>
-      <c r="H141" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B142" s="9" t="inlineStr">
-        <is>
-          <t>BKT-PI24-F-C</t>
-        </is>
-      </c>
-      <c r="C142" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D142" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E142" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F142" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G142" s="10" t="inlineStr"/>
-      <c r="H142" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B143" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C143" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D143" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E143" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F143" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G143" s="13" t="inlineStr"/>
-      <c r="H143" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B144" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C144" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D144" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E144" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F144" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G144" s="10" t="inlineStr"/>
-      <c r="H144" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B145" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C145" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D145" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E145" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F145" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G145" s="13" t="inlineStr"/>
-      <c r="H145" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B146" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C146" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D146" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E146" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F146" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G146" s="10" t="inlineStr"/>
-      <c r="H146" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H147" s="16" t="n">
-        <v>0</v>
+      <c r="H119" s="16" t="n">
+        <v>3922.650000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A119:G119"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A69:H69"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="A93:H93"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A118:H118"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A82:G82"/>
-    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="A60:G60"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="A49:G49"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
